--- a/базовые операции Excel.xlsx
+++ b/базовые операции Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="список" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>ФИО</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Клавиатуркина</t>
   </si>
   <si>
-    <t>Мониторкин</t>
-  </si>
-  <si>
     <t>Дисков</t>
   </si>
   <si>
@@ -60,6 +57,36 @@
   </si>
   <si>
     <t>ДАТА:</t>
+  </si>
+  <si>
+    <t>Мышкин</t>
+  </si>
+  <si>
+    <t>Интелов</t>
+  </si>
+  <si>
+    <t>НАЛОГ</t>
+  </si>
+  <si>
+    <t>год рождения</t>
+  </si>
+  <si>
+    <t>пол</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t>Мониторкина</t>
+  </si>
+  <si>
+    <t>ГОД</t>
+  </si>
+  <si>
+    <t>Возраст</t>
   </si>
 </sst>
 </file>
@@ -69,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +140,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +166,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,6 +237,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -476,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="C14:D14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,35 +543,48 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10">
         <f ca="1">TODAY()</f>
-        <v>44431</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44438</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -523,17 +592,25 @@
         <v>32000</v>
       </c>
       <c r="C3" s="4">
-        <f>B3/100*13</f>
+        <f>B3/100*$I$2</f>
         <v>4160</v>
       </c>
       <c r="D3" s="4">
         <f>B3-C3</f>
         <v>27840</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <v>1991</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <f ca="1">$B$12-E3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -541,19 +618,27 @@
         <v>124000</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:D6" si="0">B4/100*13</f>
+        <f t="shared" ref="C4:C8" si="0">B4/100*$I$2</f>
         <v>16120</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D6" si="1">B4-C4</f>
+        <f t="shared" ref="D4:D8" si="1">B4-C4</f>
         <v>107880</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" ca="1" si="2">$B$12-E4</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>34800</v>
@@ -566,12 +651,20 @@
         <f t="shared" si="1"/>
         <v>30276</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>2003</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>43000</v>
@@ -584,41 +677,119 @@
         <f t="shared" si="1"/>
         <v>37410</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
-        <f>SUM(B3:B6)</f>
-        <v>233800</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C3:C6)</f>
-        <v>30394</v>
-      </c>
-      <c r="D7" s="6">
-        <f>SUM(D3:D6)</f>
-        <v>203406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <f>AVERAGE(B3:B6)</f>
-        <v>58450</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" ref="C8:D8" si="2">AVERAGE(C3:C6)</f>
-        <v>7598.5</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="2"/>
-        <v>50851.5</v>
+      <c r="E6" s="2">
+        <v>1999</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12">
+        <v>32400</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>4212</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="1"/>
+        <v>28188</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2001</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12">
+        <v>123000</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>15990</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="1"/>
+        <v>107010</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1994</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <f>SUM(B3:B8)</f>
+        <v>389200</v>
+      </c>
+      <c r="C9" s="6">
+        <f>SUM(C3:C8)</f>
+        <v>50596</v>
+      </c>
+      <c r="D9" s="6">
+        <f>SUM(D3:D8)</f>
+        <v>338604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <f>AVERAGE(B3:B8)</f>
+        <v>64866.666666666664</v>
+      </c>
+      <c r="C10" s="7">
+        <f>AVERAGE(C3:C8)</f>
+        <v>8432.6666666666661</v>
+      </c>
+      <c r="D10" s="7">
+        <f>AVERAGE(D3:D8)</f>
+        <v>56434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="17">
+        <f ca="1">YEAR(B1)</f>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>

--- a/базовые операции Excel.xlsx
+++ b/базовые операции Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="список" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>ФИО</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Возраст</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Дискеткин</t>
+  </si>
+  <si>
+    <t>мужчин</t>
+  </si>
+  <si>
+    <t>женщин</t>
   </si>
 </sst>
 </file>
@@ -215,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,10 +245,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -250,6 +258,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -532,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,14 +562,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="18">
         <f ca="1">TODAY()</f>
-        <v>44438</v>
-      </c>
-      <c r="I1" s="14" t="s">
+        <v>44450</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -577,10 +592,10 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="12">
         <v>13</v>
       </c>
     </row>
@@ -606,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <f ca="1">$B$12-E3</f>
+        <f ca="1">$B$13-E3</f>
         <v>30</v>
       </c>
     </row>
@@ -618,11 +633,11 @@
         <v>124000</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C8" si="0">B4/100*$I$2</f>
+        <f t="shared" ref="C4:C9" si="0">B4/100*$I$2</f>
         <v>16120</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D8" si="1">B4-C4</f>
+        <f t="shared" ref="D4:D9" si="1">B4-C4</f>
         <v>107880</v>
       </c>
       <c r="E4" s="2">
@@ -632,169 +647,231 @@
         <v>16</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G8" ca="1" si="2">$B$12-E4</f>
+        <f t="shared" ref="G4:G9" ca="1" si="2">$B$13-E4</f>
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>123000</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5" si="3">B5/100*$I$2</f>
+        <v>15990</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5" si="4">B5-C5</f>
+        <v>107010</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2001</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>34800</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>4524</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>30276</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>2003</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" ca="1" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>43000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>5590</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>37410</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>1999</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <f t="shared" ca="1" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B8" s="10">
         <v>32400</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>4212</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="11">
         <f t="shared" si="1"/>
         <v>28188</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="13">
         <v>2001</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f t="shared" ca="1" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B9" s="10">
         <v>123000</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>15990</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="11">
         <f t="shared" si="1"/>
         <v>107010</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="13">
         <v>1994</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f t="shared" ca="1" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
-        <f>SUM(B3:B8)</f>
-        <v>389200</v>
-      </c>
-      <c r="C9" s="6">
-        <f>SUM(C3:C8)</f>
-        <v>50596</v>
-      </c>
-      <c r="D9" s="6">
-        <f>SUM(D3:D8)</f>
-        <v>338604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="6">
+        <f>SUM(B3:B9)</f>
+        <v>512200</v>
+      </c>
+      <c r="C10" s="6">
+        <f>SUM(C3:C9)</f>
+        <v>66586</v>
+      </c>
+      <c r="D10" s="6">
+        <f>SUM(D3:D9)</f>
+        <v>445614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <f>AVERAGE(B3:B8)</f>
-        <v>64866.666666666664</v>
-      </c>
-      <c r="C10" s="7">
-        <f>AVERAGE(C3:C8)</f>
-        <v>8432.6666666666661</v>
-      </c>
-      <c r="D10" s="7">
-        <f>AVERAGE(D3:D8)</f>
-        <v>56434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="B11" s="7">
+        <f>AVERAGE(B3:B9)</f>
+        <v>73171.428571428565</v>
+      </c>
+      <c r="C11" s="7">
+        <f>AVERAGE(C3:C9)</f>
+        <v>9512.2857142857138</v>
+      </c>
+      <c r="D11" s="7">
+        <f>AVERAGE(D3:D9)</f>
+        <v>63659.142857142855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B13" s="15">
         <f ca="1">YEAR(B1)</f>
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B14" s="15">
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="19">
+        <f>COUNT(B3:B9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="19">
+        <f>COUNTIF(F3:F9,"м")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="19">
+        <f>COUNTIF(F3:F9,"ж")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="19">
+        <f>B15-B16</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/базовые операции Excel.xlsx
+++ b/базовые операции Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="список" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>ФИО</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Мышкин</t>
   </si>
   <si>
-    <t>Интелов</t>
-  </si>
-  <si>
     <t>НАЛОГ</t>
   </si>
   <si>
@@ -99,16 +96,23 @@
   </si>
   <si>
     <t>женщин</t>
+  </si>
+  <si>
+    <t>Кол-во мужчин с зарплатой больше 100к</t>
+  </si>
+  <si>
+    <t>Интелова</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +165,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +205,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,6 +299,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -547,33 +588,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="13" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="18">
         <f ca="1">TODAY()</f>
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,45 +632,73 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="12">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>32000</v>
+        <v>132000</v>
       </c>
       <c r="C3" s="4">
         <f>B3/100*$I$2</f>
-        <v>4160</v>
+        <v>17160</v>
       </c>
       <c r="D3" s="4">
         <f>B3-C3</f>
-        <v>27840</v>
+        <v>114840</v>
       </c>
       <c r="E3" s="2">
         <v>1991</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <f ca="1">$B$13-E3</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="22">
+        <f>IF(D3&gt;100000,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="22">
+        <f>IF(F3="м",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="22">
+        <f>H3*I3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="23">
+        <f>IF(AND(D3&gt;100000,F3="м"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f ca="1">IF(G3&lt;25,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>IF(F3="ж",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f ca="1">L3*M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -644,42 +717,98 @@
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G9" ca="1" si="2">$B$13-E4</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="22">
+        <f t="shared" ref="H4:H9" si="3">IF(D4&gt;100000,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="22">
+        <f t="shared" ref="I4:I9" si="4">IF(F4="м",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <f t="shared" ref="J4:J9" si="5">H4*I4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
+        <f t="shared" ref="K4:K9" si="6">IF(AND(D4&gt;100000,F4="м"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L9" ca="1" si="7">IF(G4&lt;25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M9" si="8">IF(F4="ж",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="25">
+        <f t="shared" ref="N4:N9" ca="1" si="9">L4*M4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3">
         <v>123000</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5" si="3">B5/100*$I$2</f>
+        <f t="shared" ref="C5" si="10">B5/100*$I$2</f>
         <v>15990</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5" si="4">B5-C5</f>
+        <f t="shared" ref="D5" si="11">B5-C5</f>
         <v>107010</v>
       </c>
       <c r="E5" s="2">
         <v>2001</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3">
         <v>34800</v>
@@ -696,14 +825,42 @@
         <v>2003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="25">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,14 +879,42 @@
         <v>1999</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -748,16 +933,44 @@
         <v>2001</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B9" s="10">
         <v>123000</v>
@@ -780,92 +993,145 @@
         <f t="shared" ca="1" si="2"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6">
         <f>SUM(B3:B9)</f>
-        <v>512200</v>
+        <v>612200</v>
       </c>
       <c r="C10" s="6">
         <f>SUM(C3:C9)</f>
-        <v>66586</v>
+        <v>79586</v>
       </c>
       <c r="D10" s="6">
         <f>SUM(D3:D9)</f>
-        <v>445614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>532614</v>
+      </c>
+      <c r="J10" s="24">
+        <f>SUM(J3:J9)</f>
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K3:K9)</f>
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <f ca="1">SUM(N3:N9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="7">
         <f>AVERAGE(B3:B9)</f>
-        <v>73171.428571428565</v>
+        <v>87457.142857142855</v>
       </c>
       <c r="C11" s="7">
         <f>AVERAGE(C3:C9)</f>
-        <v>9512.2857142857138</v>
+        <v>11369.428571428571</v>
       </c>
       <c r="D11" s="7">
         <f>AVERAGE(D3:D9)</f>
-        <v>63659.142857142855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76087.71428571429</v>
+      </c>
+      <c r="G11" s="20">
+        <f ca="1">AVERAGE(G3:G9)</f>
+        <v>22.571428571428573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="15">
         <f ca="1">YEAR(B1)</f>
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="15">
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="19">
         <f>COUNT(B3:B9)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="19">
         <f>COUNTIF(F3:F9,"м")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="19">
         <f>COUNTIF(F3:F9,"ж")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="19">
         <f>B15-B16</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <f>SUM(J3:J9)</f>
         <v>2</v>
       </c>
     </row>
